--- a/backend/import.xlsx
+++ b/backend/import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Webdev2\Enterprise-Web-Software-Development\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3016F070-2203-A24B-8CA6-5DEBB4618245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3C9CC9-78AA-41BB-A3A4-B4533D30F972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="2320" windowWidth="28040" windowHeight="17440" xr2:uid="{CC74F2A1-70A5-C94B-B156-395E8A9934E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC74F2A1-70A5-C94B-B156-395E8A9934E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Email</t>
   </si>
@@ -69,13 +69,28 @@
     <t>student</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>test123</t>
-  </si>
-  <si>
-    <t>test234</t>
+    <t>ImportTutor1</t>
+  </si>
+  <si>
+    <t>ImportStudent1</t>
+  </si>
+  <si>
+    <t>ImportTutor2</t>
+  </si>
+  <si>
+    <t>ImportTutor3</t>
+  </si>
+  <si>
+    <t>ImportStudent2</t>
+  </si>
+  <si>
+    <t>ImportStudent3</t>
+  </si>
+  <si>
+    <t>ImportStudent4</t>
+  </si>
+  <si>
+    <t>ImportStudent5</t>
   </si>
 </sst>
 </file>
@@ -453,24 +468,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E3D5E2-0978-1840-910D-A299262F8477}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -506,17 +521,17 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -529,13 +544,151 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
+      <c r="E3">
+        <v>111</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>111</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>111</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -543,6 +696,12 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D43161DB-DDF1-D14F-BEBF-D70868BF9D36}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{720DDCC9-B4C8-AA43-BA6E-67A329776964}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{8D21F779-A933-4504-AE6C-184730C56CDE}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{7FC28863-7961-4EC3-BED7-0FF3E48C03D3}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{886351CD-DC42-47C0-9C3F-E3F66AE88F4C}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{C020BA71-BC18-48F3-BB54-578E396ED9AF}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{60441397-D6B3-400D-8EF3-93BCBA99A819}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{30594D4B-49DC-4515-A24E-B613D88DF2D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/import.xlsx
+++ b/backend/import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Webdev2\Enterprise-Web-Software-Development\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Java/Git/Enterprise-Web-Software-Development/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3C9CC9-78AA-41BB-A3A4-B4533D30F972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1368D9-55C4-C042-9D99-0D05171EA3D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC74F2A1-70A5-C94B-B156-395E8A9934E4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{CC74F2A1-70A5-C94B-B156-395E8A9934E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>Email</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>ImportStudent5</t>
+  </si>
+  <si>
+    <t>aa</t>
   </si>
 </sst>
 </file>
@@ -471,21 +474,21 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -521,8 +524,8 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>111</v>
+      <c r="E2" t="s">
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -531,7 +534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -544,8 +547,8 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>111</v>
+      <c r="E3" t="s">
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -554,7 +557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -567,8 +570,8 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>111</v>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -577,7 +580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -590,8 +593,8 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>111</v>
+      <c r="E5" t="s">
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -600,7 +603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -613,8 +616,8 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>111</v>
+      <c r="E6" t="s">
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -623,7 +626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -636,8 +639,8 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>111</v>
+      <c r="E7" t="s">
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -646,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -659,8 +662,8 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>111</v>
+      <c r="E8" t="s">
+        <v>20</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -669,7 +672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -682,8 +685,8 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>111</v>
+      <c r="E9" t="s">
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
